--- a/ExcelSheet/Credentials.xlsx
+++ b/ExcelSheet/Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhakti\eclipse-workspace\Project1\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026DC76-C3C2-48E8-9260-8943C3B32920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BED826-2814-425C-B551-73D3190F3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>bhaktikale01@gmail.com</t>
   </si>
   <si>
-    <t>Amazon</t>
+    <t>Bhakti@123</t>
   </si>
   <si>
-    <t>Bhakti@123</t>
+    <t>Amazon@345</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -409,8 +409,9 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E00BCE71-FFAD-4569-9D24-8C1AA5F034A6}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{D9615E3F-7288-43CD-A195-0FE6803E25EE}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{4687A38A-97D0-43FA-8FEA-B502A0B36721}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{D3442885-CDAD-417A-9273-98B1AD1FEFB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/ExcelSheet/Credentials.xlsx
+++ b/ExcelSheet/Credentials.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhakti\eclipse-workspace\Project1\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BED826-2814-425C-B551-73D3190F3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA277966-A897-4694-A4CD-6279901BA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UN</t>
   </si>
@@ -33,13 +34,16 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>bhaktikale01@gmail.com</t>
-  </si>
-  <si>
     <t>Bhakti@123</t>
   </si>
   <si>
     <t>Amazon@345</t>
+  </si>
+  <si>
+    <t>Bhakti</t>
+  </si>
+  <si>
+    <t>Pass@12345</t>
   </si>
 </sst>
 </file>
@@ -84,9 +88,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -371,7 +384,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,29 +402,61 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>7709055537</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>7709055537</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E00BCE71-FFAD-4569-9D24-8C1AA5F034A6}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D9615E3F-7288-43CD-A195-0FE6803E25EE}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{4687A38A-97D0-43FA-8FEA-B502A0B36721}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{D3442885-CDAD-417A-9273-98B1AD1FEFB4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4687A38A-97D0-43FA-8FEA-B502A0B36721}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D3442885-CDAD-417A-9273-98B1AD1FEFB4}"/>
+    <hyperlink ref="A3" r:id="rId3" display="bhaktikale01@gmail.com" xr:uid="{D9615E3F-7288-43CD-A195-0FE6803E25EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EC34D5-09AB-41BD-B342-119AF6A76E8F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>9420268051</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{A60F5FB9-AD01-43C4-96C7-E7B40D39F258}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>